--- a/123.xlsx
+++ b/123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95710C9C-DE0C-490A-B4D0-B16BD1596975}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30BD9B3-24B3-4CBB-8388-F00A43A3A87A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9F6BECA7-0783-42A3-8031-AD7BD8C2B7A6}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>sss</t>
   </si>
   <si>
     <t>bbb</t>
+  </si>
+  <si>
+    <t>ITEM</t>
   </si>
 </sst>
 </file>
@@ -54,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +65,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -385,24 +404,24 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
